--- a/data/trans_orig/P14A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B104FC-F193-4E73-ADEF-26759571E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34C7EFE4-0E20-49C4-B164-A5A32A717CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90DF29B5-6DC6-428E-A301-CC93737EB7D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83FBEAB2-7F37-48D5-96E3-345DCA382990}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,16 +75,16 @@
     <t>84,56%</t>
   </si>
   <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>88,68%</t>
+    <t>89,24%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>92,88%</t>
   </si>
   <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,10 +105,10 @@
     <t>15,44%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>2,21%</t>
@@ -117,16 +117,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,32%</t>
+    <t>10,76%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>78,5%</t>
   </si>
   <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,13 +198,13 @@
     <t>91,46%</t>
   </si>
   <si>
-    <t>57,32%</t>
+    <t>63,5%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>77,96%</t>
+    <t>75,51%</t>
   </si>
   <si>
     <t>0%</t>
@@ -216,61 +216,67 @@
     <t>8,54%</t>
   </si>
   <si>
-    <t>42,68%</t>
+    <t>36,5%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>22,04%</t>
+    <t>24,49%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>73,22%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>26,78%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -282,217 +288,211 @@
     <t>88,22%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>85,7%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>82,29%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>67,86%</t>
   </si>
   <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>32,56%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
   </si>
   <si>
     <t>32,14%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>77,58%</t>
   </si>
   <si>
     <t>82,58%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>22,42%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE9D213-1C38-4795-87B2-3CF35347F931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8759524-B1E6-4762-982C-723B20A3699B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1499,7 +1499,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -1508,13 +1508,13 @@
         <v>90911</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -1523,13 +1523,13 @@
         <v>145492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,13 +1544,13 @@
         <v>10841</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1559,13 +1559,13 @@
         <v>5269</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -1574,13 +1574,13 @@
         <v>16110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,7 +1636,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD513B92-B416-4DE7-817A-6C98BEDDBC32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CD8714-9CC8-4C63-9405-98FA130F9FDD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1672,7 +1672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1779,13 +1779,13 @@
         <v>20768</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -1794,13 +1794,13 @@
         <v>40170</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -1809,13 +1809,13 @@
         <v>60938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1830,13 @@
         <v>2773</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1845,13 +1845,13 @@
         <v>4253</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1860,13 +1860,13 @@
         <v>7026</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1934,13 @@
         <v>40994</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -1949,13 +1949,13 @@
         <v>64773</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>100</v>
@@ -1964,13 +1964,13 @@
         <v>105767</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1985,13 @@
         <v>11962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -2000,13 +2000,13 @@
         <v>10806</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -2015,13 +2015,13 @@
         <v>22768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2089,13 @@
         <v>6534</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2104,13 +2104,13 @@
         <v>13658</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2119,13 +2119,13 @@
         <v>20192</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2140,13 @@
         <v>3154</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2155,13 +2155,13 @@
         <v>6468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2170,13 +2170,13 @@
         <v>9622</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2244,13 @@
         <v>68296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -2259,13 +2259,13 @@
         <v>118601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>176</v>
@@ -2274,13 +2274,13 @@
         <v>186898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2295,13 @@
         <v>17889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2310,10 +2310,10 @@
         <v>21527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>148</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A09-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34C7EFE4-0E20-49C4-B164-A5A32A717CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A35F15-9FC3-4E6E-88A0-FC889CAADA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83FBEAB2-7F37-48D5-96E3-345DCA382990}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1250372-0EE3-4C98-AA4F-86112A50D75E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,16 +75,16 @@
     <t>84,56%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>89,24%</t>
+    <t>87,77%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>92,88%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,10 +105,10 @@
     <t>15,44%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>2,21%</t>
@@ -117,16 +117,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,76%</t>
+    <t>12,23%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>78,5%</t>
   </si>
   <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,13 +198,13 @@
     <t>91,46%</t>
   </si>
   <si>
-    <t>63,5%</t>
+    <t>57,91%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>75,51%</t>
+    <t>77,92%</t>
   </si>
   <si>
     <t>0%</t>
@@ -216,79 +216,79 @@
     <t>8,54%</t>
   </si>
   <si>
-    <t>36,5%</t>
+    <t>42,09%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>24,49%</t>
+    <t>22,08%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por asma en 2015 (Tasa respuesta: 3,29%)</t>
+    <t>Población que recibe medicación o terapia por asma en 2016 (Tasa respuesta: 3,29%)</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>69,76%</t>
+    <t>69,18%</t>
   </si>
   <si>
     <t>96,54%</t>
@@ -297,19 +297,16 @@
     <t>90,43%</t>
   </si>
   <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>76,87%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>11,78%</t>
@@ -318,181 +315,184 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>30,24%</t>
+    <t>30,82%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>23,13%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
   </si>
   <si>
     <t>85,7%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>82,29%</t>
   </si>
   <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>67,86%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>32,56%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
   </si>
   <si>
     <t>32,14%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>77,58%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>82,58%</t>
   </si>
   <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>22,42%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8759524-B1E6-4762-982C-723B20A3699B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5F24F4-2692-466A-B108-B6D70B3714B6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1655,7 +1655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CD8714-9CC8-4C63-9405-98FA130F9FDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318D949C-880C-41EF-BA1E-45284E6A2587}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1800,7 +1800,7 @@
         <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -1809,13 +1809,13 @@
         <v>60938</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1830,13 @@
         <v>2773</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1845,13 +1845,13 @@
         <v>4253</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1860,13 +1860,13 @@
         <v>7026</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1934,13 @@
         <v>40994</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -1949,13 +1949,13 @@
         <v>64773</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>100</v>
@@ -1964,13 +1964,13 @@
         <v>105767</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1985,13 @@
         <v>11962</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -2000,13 +2000,13 @@
         <v>10806</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -2015,13 +2015,13 @@
         <v>22768</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2089,13 @@
         <v>6534</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2104,13 +2104,13 @@
         <v>13658</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2119,13 +2119,13 @@
         <v>20192</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2140,13 @@
         <v>3154</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2155,13 +2155,13 @@
         <v>6468</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2170,13 +2170,13 @@
         <v>9622</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2244,13 @@
         <v>68296</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -2259,13 +2259,13 @@
         <v>118601</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>176</v>
@@ -2274,13 +2274,13 @@
         <v>186898</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2295,13 @@
         <v>17889</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2310,10 +2310,10 @@
         <v>21527</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>148</v>
